--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -69,9 +69,6 @@
     <t>Øko</t>
   </si>
   <si>
-    <t>weather.dwf</t>
-  </si>
-  <si>
     <t>weather2.dwf</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>JB6</t>
+  </si>
+  <si>
+    <t>weather1.dwf</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="76" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>2</v>
@@ -1247,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,24 +1311,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="42">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="43">
         <v>0</v>
@@ -1395,52 +1395,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>65</v>
-      </c>
       <c r="M1" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="55" t="s">
         <v>77</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="56">
@@ -1474,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="O2" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="56">
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="51"/>
       <c r="I5" s="56">
@@ -1576,12 +1576,12 @@
         <v>22</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="57">
         <v>43556</v>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="56">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="N6" s="39"/>
       <c r="O6" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="56">
@@ -1641,12 +1641,12 @@
         <v>1</v>
       </c>
       <c r="O7" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="57">
         <v>43556</v>
@@ -1661,13 +1661,13 @@
         <v>43617</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="56">
         <v>43568</v>
@@ -1686,15 +1686,15 @@
         <v>963</v>
       </c>
       <c r="O8" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="57">
         <v>43556</v>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="56">
         <v>43568</v>
@@ -1728,12 +1728,12 @@
         <v>970</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="57">
         <v>43556</v>
@@ -1749,10 +1749,10 @@
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="56">
         <v>43568</v>
@@ -1767,12 +1767,12 @@
         <v>970</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="57">
         <v>43556</v>
@@ -1790,10 +1790,10 @@
         <v>43723</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="56">
         <v>43568</v>
@@ -1808,15 +1808,15 @@
         <v>970</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="57">
         <v>43556</v>
@@ -1834,10 +1834,10 @@
         <v>43723</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="56">
         <v>43568</v>
@@ -1852,15 +1852,15 @@
         <v>970</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="56">
         <v>43362</v>
@@ -1879,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="56">
         <v>43525</v>
@@ -1896,12 +1896,12 @@
         <v>970</v>
       </c>
       <c r="O13" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="56">
         <v>43362</v>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="56">
@@ -1933,12 +1933,12 @@
         <v>970</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="57">
         <v>43556</v>
@@ -1954,10 +1954,10 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="56">
         <v>43557</v>
@@ -1974,7 +1974,7 @@
         <v>101</v>
       </c>
       <c r="O15" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="56">
@@ -2004,7 +2004,7 @@
         <v>101</v>
       </c>
       <c r="O16" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="56">
@@ -2038,12 +2038,12 @@
         <v>151</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="57">
         <v>43586</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="56">
@@ -2072,7 +2072,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="56">
@@ -2106,12 +2106,12 @@
         <v>160</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="57">
         <v>43577</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="56">
@@ -2138,21 +2138,21 @@
         <v>30</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="56">
@@ -2165,7 +2165,7 @@
         <v>261</v>
       </c>
       <c r="O21" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2176,10 +2176,10 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="58">
@@ -2198,12 +2198,12 @@
         <v>260</v>
       </c>
       <c r="O22" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="57">
         <v>43586</v>
@@ -2219,10 +2219,10 @@
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="56">
         <v>43590</v>
@@ -2239,12 +2239,12 @@
         <v>970</v>
       </c>
       <c r="O23" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="57">
         <v>43556</v>
@@ -2254,11 +2254,11 @@
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="56">
@@ -2277,22 +2277,22 @@
         <v>252</v>
       </c>
       <c r="O24" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="56">
@@ -2307,12 +2307,12 @@
         <v>252</v>
       </c>
       <c r="O25" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="57">
         <v>43556</v>
@@ -2322,11 +2322,11 @@
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="56">
@@ -2345,22 +2345,22 @@
         <v>252</v>
       </c>
       <c r="O26" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="56">
@@ -2375,22 +2375,22 @@
         <v>252</v>
       </c>
       <c r="O27" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="51"/>
       <c r="I28" s="58">
@@ -2409,12 +2409,12 @@
         <v>257</v>
       </c>
       <c r="O28" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="57">
         <v>43556</v>
@@ -2424,11 +2424,11 @@
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="51"/>
       <c r="I29" s="56">
@@ -2447,12 +2447,12 @@
         <v>257</v>
       </c>
       <c r="O29" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="57">
         <v>43556</v>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="56">
@@ -2485,22 +2485,22 @@
         <v>256</v>
       </c>
       <c r="O30" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="58">
@@ -2519,7 +2519,7 @@
         <v>256</v>
       </c>
       <c r="O31" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2558,19 +2558,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="71"/>
     </row>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="72">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="72">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="72">
@@ -2632,10 +2632,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="71">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="72">
@@ -2660,13 +2660,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="72">
         <v>701</v>
@@ -2678,13 +2678,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="72">
         <v>1</v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="72">
         <v>1</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="72">
         <v>1</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="72">
         <v>2</v>
@@ -2750,13 +2750,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="72">
         <v>10</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="72">
@@ -2784,13 +2784,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="72">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="72">
@@ -2819,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="72">
@@ -2847,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72">
@@ -2858,10 +2858,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="72">
@@ -2872,10 +2872,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72">
@@ -2889,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="72">
@@ -2900,13 +2900,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="72">
         <v>216</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="72">
@@ -2932,10 +2932,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72">
@@ -2946,10 +2946,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="72">
@@ -2960,10 +2960,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72">
@@ -2974,10 +2974,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="72">
@@ -2988,10 +2988,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72">
@@ -3002,10 +3002,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="72">
@@ -3016,10 +3016,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="72">
@@ -3045,7 +3045,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,44 +3055,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>weather1.dwf</t>
+  </si>
+  <si>
+    <t>K6-med</t>
+  </si>
+  <si>
+    <t>S4-med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vårbyg </t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -632,11 +647,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -849,6 +877,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,162 +1173,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="27"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,7 +1392,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -276,15 +276,6 @@
     <t>SB-green</t>
   </si>
   <si>
-    <t>K7-high</t>
-  </si>
-  <si>
-    <t>K5-med</t>
-  </si>
-  <si>
-    <t>P3-low</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -315,13 +306,13 @@
     <t>weather1.dwf</t>
   </si>
   <si>
-    <t>K6-med</t>
-  </si>
-  <si>
-    <t>S4-med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vårbyg </t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -386,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,14 +414,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -647,24 +632,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -877,21 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,31 +1142,23 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -1222,14 +1171,8 @@
       <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1242,14 +1185,8 @@
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1262,14 +1199,8 @@
       <c r="D4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1282,14 +1213,8 @@
       <c r="D5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1302,14 +1227,8 @@
       <c r="D6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1322,62 +1241,49 @@
       <c r="D7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="D16" s="28"/>
     </row>
@@ -1424,7 +1330,9 @@
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="43">
+        <v>0</v>
+      </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43">
         <v>170</v>
@@ -3149,33 +3057,33 @@
   <sheetData>
     <row r="1" spans="1:4" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3183,10 +3091,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -1132,16 +1132,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,11 +1151,11 @@
       <c r="B1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="76" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,11 +1165,11 @@
       <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1179,11 +1179,11 @@
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,11 +1193,11 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,10 +1207,10 @@
       <c r="B5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1221,11 +1221,11 @@
       <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,11 +1235,11 @@
       <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>55</v>
@@ -1266,26 +1266,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,9 +1330,7 @@
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="43">
-        <v>0</v>
-      </c>
+      <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43">
         <v>170</v>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -1132,16 +1132,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,11 +1151,11 @@
       <c r="B1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,11 +1165,11 @@
       <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1179,11 +1179,11 @@
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,11 +1193,11 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,10 +1207,10 @@
       <c r="B5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="46" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1221,11 +1221,11 @@
       <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,11 +1235,11 @@
       <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>55</v>
@@ -1266,26 +1266,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
-      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,9 @@
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="43">
+        <v>0</v>
+      </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43">
         <v>170</v>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -270,18 +270,6 @@
     <t>SB-green</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>C_start</t>
-  </si>
-  <si>
     <t>Soiltype</t>
   </si>
   <si>
@@ -315,12 +303,6 @@
     <t>JB6-6-7-7-7L_high</t>
   </si>
   <si>
-    <t>Høje-Taastrup_1990-2010.dwf</t>
-  </si>
-  <si>
-    <t>Vejen_1990-2010.dwf</t>
-  </si>
-  <si>
     <t>JB4-4-7-7-7_med</t>
   </si>
   <si>
@@ -328,6 +310,15 @@
   </si>
   <si>
     <t>JB4-4-7-7-7_high</t>
+  </si>
+  <si>
+    <t>East.dwf</t>
+  </si>
+  <si>
+    <t>West.dwf</t>
+  </si>
+  <si>
+    <t>30/6,  5/8, 15/9</t>
   </si>
 </sst>
 </file>
@@ -424,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -605,17 +596,6 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -639,11 +619,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -663,9 +640,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -674,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -819,28 +790,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1124,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,145 +1104,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>1</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1299,47 +1252,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <v>85</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>0</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,939 +1306,939 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="4"/>
-    <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="18.28515625" style="4"/>
+    <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="3"/>
+    <col min="8" max="8" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="46">
         <v>43362</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="47">
         <v>43363</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47">
         <v>43697</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="49">
+      <c r="H2" s="41"/>
+      <c r="I2" s="46">
         <v>43525</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="46">
         <v>43556</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="35">
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="32">
         <v>11</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <v>43362</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="47">
         <v>43363</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47">
         <v>43677</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="49">
+      <c r="H3" s="41"/>
+      <c r="I3" s="46">
         <v>43525</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="46">
         <v>43556</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="35">
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="32">
         <v>10</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>43362</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="47">
         <v>43363</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47">
         <v>43687</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="49">
+      <c r="H4" s="41"/>
+      <c r="I4" s="46">
         <v>43525</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="46">
         <v>43556</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="35">
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="32">
         <v>14</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>43362</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="47">
         <v>43363</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>43678</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="49">
+      <c r="H5" s="41"/>
+      <c r="I5" s="46">
         <v>43525</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="46">
         <v>43570</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="35">
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="32">
         <v>22</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>43556</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="47">
         <v>43557</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <v>43678</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="49">
+      <c r="H6" s="41"/>
+      <c r="I6" s="46">
         <v>43568</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="33">
+      <c r="J6" s="46"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="30">
         <v>2</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="30"/>
+      <c r="O6" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <v>43556</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="47">
         <v>43557</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <v>43687</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="49">
+      <c r="H7" s="41"/>
+      <c r="I7" s="46">
         <v>43568</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="35">
+      <c r="J7" s="46"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="32">
         <v>1</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="47">
         <v>43556</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="47">
         <v>43557</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="47">
         <v>43558</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="47">
         <v>43617</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="49">
+      <c r="H8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="46">
         <v>43568</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="46">
         <v>43648</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="42">
         <v>43679</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="35">
+      <c r="L8" s="43"/>
+      <c r="M8" s="32">
         <v>701</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="32">
         <v>963</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="47">
         <v>43556</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="47">
         <v>43557</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="47">
         <v>43558</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="47">
         <v>43687</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="46">
         <v>43568</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="35">
+      <c r="J9" s="46"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="32">
         <v>1</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="32">
         <v>970</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="47">
         <v>43556</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="47">
         <v>43557</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <v>43558</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="47">
         <v>43687</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="46">
         <v>43568</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="35">
+      <c r="J10" s="46"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="32">
         <v>1</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="32">
         <v>970</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="47">
         <v>43556</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="47">
         <v>43557</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <v>43558</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <v>43687</v>
       </c>
-      <c r="F11" s="26">
-        <v>43723</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="23">
+        <v>43733</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="H11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="46">
         <v>43568</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="35">
+      <c r="J11" s="46"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="32">
         <v>1</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="32">
         <v>970</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="O11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="47">
         <v>43556</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="47">
         <v>43557</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <v>43558</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="47">
         <v>43678</v>
       </c>
-      <c r="F12" s="26">
-        <v>43723</v>
-      </c>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="23">
+        <v>43733</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="49">
+      <c r="H12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="46">
         <v>43568</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="35">
+      <c r="J12" s="46"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="32">
         <v>2</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="32">
         <v>970</v>
       </c>
-      <c r="O12" s="47" t="s">
+      <c r="O12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="47" t="s">
+      <c r="P12" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>43362</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="47">
         <v>43363</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="47">
         <v>43687</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="47">
         <v>43678</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="46">
         <v>43525</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="46">
         <v>43556</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="35">
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="32">
         <v>10</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="32">
         <v>970</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="O13" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>43362</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="47">
         <v>43363</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47">
         <v>43687</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="49">
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <v>43525</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="46">
         <v>43556</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="35">
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="32">
         <v>14</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="32">
         <v>970</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="47">
         <v>43556</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="47">
         <v>43557</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="47">
         <v>43558</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="47">
         <v>43678</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="46">
         <v>43557</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="46">
         <v>43556</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="35">
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="32">
         <v>1</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="32">
         <v>101</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>43678</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="49">
+      <c r="H16" s="41"/>
+      <c r="I16" s="46">
         <v>43556</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="46">
         <v>43617</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="35">
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="32">
         <v>101</v>
       </c>
-      <c r="O16" s="47" t="s">
+      <c r="O16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="47">
         <v>43556</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="47">
         <v>43557</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47">
         <v>43661</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="49">
+      <c r="H17" s="41"/>
+      <c r="I17" s="46">
         <v>43570</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="46">
         <v>43626</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="35">
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="32">
         <v>151</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="47">
         <v>43586</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="47">
         <v>43590</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47">
         <v>43733</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="49">
+      <c r="H18" s="41"/>
+      <c r="I18" s="46">
         <v>43590</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="46">
         <v>43626</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="35">
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="32">
         <v>216</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="47">
         <v>43556</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="47">
         <v>43560</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47">
         <v>43733</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="28" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="49">
+      <c r="H19" s="41"/>
+      <c r="I19" s="46">
         <v>43560</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="46">
         <v>43626</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="35">
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="32">
         <v>160</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="47">
         <v>43577</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="47">
         <v>43580</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47">
         <v>43713</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="49">
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <v>43586</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="35">
+      <c r="J20" s="46"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="32">
         <v>30</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="46">
+        <v>43586</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="32">
+        <v>261</v>
+      </c>
+      <c r="O21" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="H22" s="41"/>
+      <c r="I22" s="48">
+        <v>43525</v>
+      </c>
+      <c r="J22" s="48">
+        <v>43622</v>
+      </c>
+      <c r="K22" s="42">
+        <v>43662</v>
+      </c>
+      <c r="L22" s="42">
+        <v>43698</v>
+      </c>
+      <c r="M22" s="32">
+        <v>260</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="47">
         <v>43586</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="35">
-        <v>261</v>
-      </c>
-      <c r="O21" s="47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="51">
-        <v>43525</v>
-      </c>
-      <c r="J22" s="51">
+      <c r="C23" s="47">
+        <v>43590</v>
+      </c>
+      <c r="D23" s="47">
+        <v>43626</v>
+      </c>
+      <c r="E23" s="47">
+        <v>43733</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="46">
+        <v>43590</v>
+      </c>
+      <c r="J23" s="46">
+        <v>43626</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="32">
+        <v>216</v>
+      </c>
+      <c r="N23" s="32">
+        <v>970</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="47">
+        <v>43556</v>
+      </c>
+      <c r="C24" s="47">
+        <v>43560</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="46">
+        <v>43556</v>
+      </c>
+      <c r="J24" s="46">
         <v>43622</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K24" s="42">
         <v>43662</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L24" s="43">
         <v>43698</v>
       </c>
-      <c r="M22" s="35">
-        <v>260</v>
-      </c>
-      <c r="O22" s="47" t="s">
+      <c r="M24" s="32">
+        <v>252</v>
+      </c>
+      <c r="O24" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="50">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="46">
         <v>43586</v>
       </c>
-      <c r="C23" s="50">
-        <v>43590</v>
-      </c>
-      <c r="D23" s="50">
-        <v>43626</v>
-      </c>
-      <c r="E23" s="50">
-        <v>43733</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="49">
-        <v>43590</v>
-      </c>
-      <c r="J23" s="49">
-        <v>43626</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="35">
-        <v>216</v>
-      </c>
-      <c r="N23" s="35">
-        <v>970</v>
-      </c>
-      <c r="O23" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="50">
-        <v>43556</v>
-      </c>
-      <c r="C24" s="50">
-        <v>43560</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="49">
-        <v>43556</v>
-      </c>
-      <c r="J24" s="49">
-        <v>43622</v>
-      </c>
-      <c r="K24" s="45">
+      <c r="J25" s="46">
         <v>43662</v>
       </c>
-      <c r="L24" s="46">
-        <v>43698</v>
-      </c>
-      <c r="M24" s="35">
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="32">
         <v>252</v>
       </c>
-      <c r="O24" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="49">
-        <v>43586</v>
-      </c>
-      <c r="J25" s="49">
-        <v>43662</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="35">
-        <v>252</v>
-      </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2293,225 +2246,225 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="47">
         <v>43556</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="47">
         <v>43560</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="49">
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <v>43570</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="46">
         <v>43622</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="42">
         <v>43662</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="43">
         <v>43698</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="32">
         <v>252</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="H27" s="41"/>
+      <c r="I27" s="46">
         <v>43586</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="46">
         <v>43662</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="35">
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="32">
         <v>252</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="51">
+      <c r="H28" s="41"/>
+      <c r="I28" s="48">
         <v>43525</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="48">
         <v>43622</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="42">
         <v>43662</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="42">
         <v>43698</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="32">
         <v>257</v>
       </c>
-      <c r="O28" s="47" t="s">
+      <c r="O28" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="47">
         <v>43556</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="47">
         <v>43560</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="49">
+      <c r="H29" s="41"/>
+      <c r="I29" s="46">
         <v>43570</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="48">
         <v>43622</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="42">
         <v>43662</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="42">
         <v>43698</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="32">
         <v>257</v>
       </c>
-      <c r="O29" s="47" t="s">
+      <c r="O29" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="47">
         <v>43556</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="47">
         <v>43560</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="49">
+      <c r="H30" s="41"/>
+      <c r="I30" s="46">
         <v>43570</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="48">
         <v>43622</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="42">
         <v>43662</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="42">
         <v>43698</v>
       </c>
-      <c r="M30" s="35">
+      <c r="M30" s="32">
         <v>256</v>
       </c>
-      <c r="O30" s="47" t="s">
+      <c r="O30" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="51">
+      <c r="H31" s="41"/>
+      <c r="I31" s="48">
         <v>43525</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="48">
         <v>43622</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="42">
         <v>43662</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="42">
         <v>43698</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="32">
         <v>256</v>
       </c>
-      <c r="O31" s="47" t="s">
+      <c r="O31" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
+      <c r="A32" s="4"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,495 +2476,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56">
         <v>11</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56">
         <v>10</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59">
+      <c r="C4" s="55"/>
+      <c r="D4" s="56">
         <v>14</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56">
         <v>22</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55">
         <v>2</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56">
         <v>1</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="56">
         <v>701</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="56">
         <v>963</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="56">
         <v>1</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="56">
         <v>970</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="56">
         <v>1</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="56">
         <v>970</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="56">
         <v>1</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="56">
         <v>970</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="56">
         <v>2</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="56">
         <v>970</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="56">
         <v>10</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="56">
         <v>970</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59">
+      <c r="C14" s="55"/>
+      <c r="D14" s="56">
         <v>14</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="56">
         <v>970</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="56">
         <v>1</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="56">
         <v>101</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56">
         <v>101</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56">
         <v>151</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56">
         <v>216</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59">
+      <c r="C19" s="55"/>
+      <c r="D19" s="56">
         <v>160</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56">
         <v>30</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59">
+      <c r="C21" s="55"/>
+      <c r="D21" s="56">
         <v>261</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59">
+      <c r="C22" s="55"/>
+      <c r="D22" s="56">
         <v>260</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="56">
         <v>216</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="56">
         <v>970</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59">
+      <c r="C24" s="55"/>
+      <c r="D24" s="56">
         <v>252</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59">
+      <c r="C25" s="55"/>
+      <c r="D25" s="56">
         <v>252</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59">
+      <c r="C26" s="55"/>
+      <c r="D26" s="56">
         <v>252</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56">
         <v>252</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59">
+      <c r="C28" s="55"/>
+      <c r="D28" s="56">
         <v>257</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56">
         <v>257</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59">
+      <c r="C30" s="55"/>
+      <c r="D30" s="56">
         <v>256</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59">
+      <c r="C31" s="55"/>
+      <c r="D31" s="56">
         <v>256</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="58"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3021,89 +2976,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:3" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/common/masterinput_spinup.xlsx
+++ b/Scenarios/common/masterinput_spinup.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tqc268\Desktop\Github\StyrN\Scenarios\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Crops!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,31 +280,7 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>JB1-1-2-2_med</t>
-  </si>
-  <si>
-    <t>JB1-1-2-2_low</t>
-  </si>
-  <si>
-    <t>JB1-1-2-2_high</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_med</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_low</t>
-  </si>
-  <si>
-    <t>JB6-6-7-7-7L_high</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_med</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_low</t>
-  </si>
-  <si>
-    <t>JB4-4-7-7-7_high</t>
+    <t>30/6,  5/8, 15/9</t>
   </si>
   <si>
     <t>East.dwf</t>
@@ -318,13 +289,37 @@
     <t>West.dwf</t>
   </si>
   <si>
-    <t>30/6,  5/8, 15/9</t>
+    <t>JB1med</t>
+  </si>
+  <si>
+    <t>JB1low</t>
+  </si>
+  <si>
+    <t>JB1high</t>
+  </si>
+  <si>
+    <t>JB4med</t>
+  </si>
+  <si>
+    <t>JB4low</t>
+  </si>
+  <si>
+    <t>JB4high</t>
+  </si>
+  <si>
+    <t>JB6med</t>
+  </si>
+  <si>
+    <t>JB6low</t>
+  </si>
+  <si>
+    <t>JB6high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -460,20 +455,20 @@
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color rgb="FFFFFFFF"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
       </bottom>
@@ -519,6 +514,19 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,39 +599,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -649,14 +630,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -676,36 +663,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -715,15 +702,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,13 +724,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -750,32 +740,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,31 +775,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,7 +1053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,98 +1064,98 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="38" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1191,13 +1163,13 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1205,32 +1177,32 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,47 +1224,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <v>85</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="35">
         <v>0</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1306,939 +1285,939 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="3"/>
-    <col min="8" max="8" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="18.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="47" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="48">
         <v>43362</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="49">
         <v>43363</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49">
         <v>43697</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="46">
+      <c r="H2" s="43"/>
+      <c r="I2" s="48">
         <v>43525</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="48">
         <v>43556</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="32">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="33">
         <v>11</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="48">
         <v>43362</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="49">
         <v>43363</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49">
         <v>43677</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="46">
+      <c r="H3" s="43"/>
+      <c r="I3" s="48">
         <v>43525</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="48">
         <v>43556</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="32">
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="33">
         <v>10</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>43362</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="49">
         <v>43363</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49">
         <v>43687</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="46">
+      <c r="H4" s="43"/>
+      <c r="I4" s="48">
         <v>43525</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="48">
         <v>43556</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="32">
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="33">
         <v>14</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>43362</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="49">
         <v>43363</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49">
         <v>43678</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="46">
+      <c r="H5" s="43"/>
+      <c r="I5" s="48">
         <v>43525</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="48">
         <v>43570</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="32">
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="33">
         <v>22</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="49">
         <v>43556</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="49">
         <v>43557</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49">
         <v>43678</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="46">
+      <c r="H6" s="43"/>
+      <c r="I6" s="48">
         <v>43568</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="30">
+      <c r="J6" s="48"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="31">
         <v>2</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="44" t="s">
+      <c r="N6" s="31"/>
+      <c r="O6" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="49">
         <v>43556</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="49">
         <v>43557</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49">
         <v>43687</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="46">
+      <c r="H7" s="43"/>
+      <c r="I7" s="48">
         <v>43568</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="32">
+      <c r="J7" s="48"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="33">
         <v>1</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="49">
         <v>43556</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="49">
         <v>43557</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="49">
         <v>43558</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="49">
         <v>43617</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="48">
+        <v>43568</v>
+      </c>
+      <c r="J8" s="48">
+        <v>43648</v>
+      </c>
+      <c r="K8" s="44">
+        <v>43679</v>
+      </c>
+      <c r="L8" s="45"/>
+      <c r="M8" s="33">
+        <v>701</v>
+      </c>
+      <c r="N8" s="33">
+        <v>963</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C9" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D9" s="49">
+        <v>43558</v>
+      </c>
+      <c r="E9" s="49">
+        <v>43687</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="48">
+        <v>43568</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="33">
+        <v>1</v>
+      </c>
+      <c r="N9" s="33">
+        <v>970</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C10" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D10" s="49">
+        <v>43558</v>
+      </c>
+      <c r="E10" s="49">
+        <v>43687</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="48">
+        <v>43568</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="33">
+        <v>1</v>
+      </c>
+      <c r="N10" s="33">
+        <v>970</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C11" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D11" s="49">
+        <v>43558</v>
+      </c>
+      <c r="E11" s="49">
+        <v>43687</v>
+      </c>
+      <c r="F11" s="24">
+        <v>43733</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="48">
+        <v>43568</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="33">
+        <v>1</v>
+      </c>
+      <c r="N11" s="33">
+        <v>970</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C12" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D12" s="49">
+        <v>43558</v>
+      </c>
+      <c r="E12" s="49">
+        <v>43678</v>
+      </c>
+      <c r="F12" s="24">
+        <v>43733</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="48">
+        <v>43568</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="33">
+        <v>2</v>
+      </c>
+      <c r="N12" s="33">
+        <v>970</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="48">
+        <v>43362</v>
+      </c>
+      <c r="C13" s="49">
+        <v>43363</v>
+      </c>
+      <c r="D13" s="49">
+        <v>43687</v>
+      </c>
+      <c r="E13" s="49">
+        <v>43678</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="48">
+        <v>43525</v>
+      </c>
+      <c r="J13" s="48">
+        <v>43556</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="33">
+        <v>10</v>
+      </c>
+      <c r="N13" s="33">
+        <v>970</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="48">
+        <v>43362</v>
+      </c>
+      <c r="C14" s="49">
+        <v>43363</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49">
+        <v>43687</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="48">
+        <v>43525</v>
+      </c>
+      <c r="J14" s="48">
+        <v>43556</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="33">
+        <v>14</v>
+      </c>
+      <c r="N14" s="33">
+        <v>970</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C15" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D15" s="49">
+        <v>43558</v>
+      </c>
+      <c r="E15" s="49">
+        <v>43678</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="48">
+        <v>43557</v>
+      </c>
+      <c r="J15" s="48">
+        <v>43556</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="33">
+        <v>1</v>
+      </c>
+      <c r="N15" s="33">
+        <v>101</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49">
+        <v>43678</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="48">
+        <v>43556</v>
+      </c>
+      <c r="J16" s="48">
+        <v>43617</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="33">
+        <v>101</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C17" s="49">
+        <v>43557</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49">
+        <v>43661</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="48">
+        <v>43570</v>
+      </c>
+      <c r="J17" s="48">
+        <v>43626</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="33">
+        <v>151</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="49">
+        <v>43586</v>
+      </c>
+      <c r="C18" s="49">
+        <v>43590</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49">
+        <v>43733</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="48">
+        <v>43590</v>
+      </c>
+      <c r="J18" s="48">
+        <v>43626</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="33">
+        <v>216</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="49">
+        <v>43556</v>
+      </c>
+      <c r="C19" s="49">
+        <v>43560</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49">
+        <v>43733</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="48">
+        <v>43560</v>
+      </c>
+      <c r="J19" s="48">
+        <v>43626</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="33">
+        <v>160</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="49">
+        <v>43577</v>
+      </c>
+      <c r="C20" s="49">
+        <v>43580</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49">
+        <v>43713</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="48">
+        <v>43586</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="33">
+        <v>30</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="46">
-        <v>43568</v>
-      </c>
-      <c r="J8" s="46">
-        <v>43648</v>
-      </c>
-      <c r="K8" s="42">
-        <v>43679</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="32">
-        <v>701</v>
-      </c>
-      <c r="N8" s="32">
-        <v>963</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="44" t="s">
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
+        <v>43586</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="33">
+        <v>261</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="50">
+        <v>43525</v>
+      </c>
+      <c r="J22" s="50">
+        <v>43622</v>
+      </c>
+      <c r="K22" s="44">
+        <v>43662</v>
+      </c>
+      <c r="L22" s="44">
+        <v>43698</v>
+      </c>
+      <c r="M22" s="33">
+        <v>260</v>
+      </c>
+      <c r="O22" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="47">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="49">
+        <v>43586</v>
+      </c>
+      <c r="C23" s="49">
+        <v>43590</v>
+      </c>
+      <c r="D23" s="49">
+        <v>43626</v>
+      </c>
+      <c r="E23" s="49">
+        <v>43733</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="48">
+        <v>43590</v>
+      </c>
+      <c r="J23" s="48">
+        <v>43626</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="33">
+        <v>216</v>
+      </c>
+      <c r="N23" s="33">
+        <v>970</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="49">
         <v>43556</v>
       </c>
-      <c r="C9" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D9" s="47">
-        <v>43558</v>
-      </c>
-      <c r="E9" s="47">
-        <v>43687</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="C24" s="49">
+        <v>43560</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="46">
-        <v>43568</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="32">
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
-        <v>970</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="47">
+      <c r="H24" s="43"/>
+      <c r="I24" s="48">
         <v>43556</v>
       </c>
-      <c r="C10" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D10" s="47">
-        <v>43558</v>
-      </c>
-      <c r="E10" s="47">
-        <v>43687</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="J24" s="48">
+        <v>43622</v>
+      </c>
+      <c r="K24" s="44">
+        <v>43662</v>
+      </c>
+      <c r="L24" s="45">
+        <v>43698</v>
+      </c>
+      <c r="M24" s="33">
+        <v>252</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="46">
-        <v>43568</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="32">
-        <v>1</v>
-      </c>
-      <c r="N10" s="32">
-        <v>970</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C11" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D11" s="47">
-        <v>43558</v>
-      </c>
-      <c r="E11" s="47">
-        <v>43687</v>
-      </c>
-      <c r="F11" s="23">
-        <v>43733</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="46">
-        <v>43568</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="32">
-        <v>1</v>
-      </c>
-      <c r="N11" s="32">
-        <v>970</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C12" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D12" s="47">
-        <v>43558</v>
-      </c>
-      <c r="E12" s="47">
-        <v>43678</v>
-      </c>
-      <c r="F12" s="23">
-        <v>43733</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="46">
-        <v>43568</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="32">
-        <v>2</v>
-      </c>
-      <c r="N12" s="32">
-        <v>970</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="46">
-        <v>43362</v>
-      </c>
-      <c r="C13" s="47">
-        <v>43363</v>
-      </c>
-      <c r="D13" s="47">
-        <v>43687</v>
-      </c>
-      <c r="E13" s="47">
-        <v>43678</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="46">
-        <v>43525</v>
-      </c>
-      <c r="J13" s="46">
-        <v>43556</v>
-      </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="32">
-        <v>10</v>
-      </c>
-      <c r="N13" s="32">
-        <v>970</v>
-      </c>
-      <c r="O13" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="46">
-        <v>43362</v>
-      </c>
-      <c r="C14" s="47">
-        <v>43363</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47">
-        <v>43687</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
-        <v>43525</v>
-      </c>
-      <c r="J14" s="46">
-        <v>43556</v>
-      </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="32">
-        <v>14</v>
-      </c>
-      <c r="N14" s="32">
-        <v>970</v>
-      </c>
-      <c r="O14" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C15" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D15" s="47">
-        <v>43558</v>
-      </c>
-      <c r="E15" s="47">
-        <v>43678</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="46">
-        <v>43557</v>
-      </c>
-      <c r="J15" s="46">
-        <v>43556</v>
-      </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="32">
-        <v>1</v>
-      </c>
-      <c r="N15" s="32">
-        <v>101</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
-        <v>43678</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="46">
-        <v>43556</v>
-      </c>
-      <c r="J16" s="46">
-        <v>43617</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="32">
-        <v>101</v>
-      </c>
-      <c r="O16" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C17" s="47">
-        <v>43557</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47">
-        <v>43661</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
-        <v>43570</v>
-      </c>
-      <c r="J17" s="46">
-        <v>43626</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="32">
-        <v>151</v>
-      </c>
-      <c r="O17" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="47">
+      <c r="H25" s="43"/>
+      <c r="I25" s="48">
         <v>43586</v>
       </c>
-      <c r="C18" s="47">
-        <v>43590</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47">
-        <v>43733</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="46">
-        <v>43590</v>
-      </c>
-      <c r="J18" s="46">
-        <v>43626</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="32">
-        <v>216</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C19" s="47">
-        <v>43560</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47">
-        <v>43733</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="46">
-        <v>43560</v>
-      </c>
-      <c r="J19" s="46">
-        <v>43626</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="32">
-        <v>160</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="47">
-        <v>43577</v>
-      </c>
-      <c r="C20" s="47">
-        <v>43580</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47">
-        <v>43713</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
-        <v>43586</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="32">
-        <v>30</v>
-      </c>
-      <c r="O20" s="44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="46">
-        <v>43586</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="32">
-        <v>261</v>
-      </c>
-      <c r="O21" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="48">
-        <v>43525</v>
-      </c>
-      <c r="J22" s="48">
-        <v>43622</v>
-      </c>
-      <c r="K22" s="42">
+      <c r="J25" s="48">
         <v>43662</v>
       </c>
-      <c r="L22" s="42">
-        <v>43698</v>
-      </c>
-      <c r="M22" s="32">
-        <v>260</v>
-      </c>
-      <c r="O22" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="47">
-        <v>43586</v>
-      </c>
-      <c r="C23" s="47">
-        <v>43590</v>
-      </c>
-      <c r="D23" s="47">
-        <v>43626</v>
-      </c>
-      <c r="E23" s="47">
-        <v>43733</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="46">
-        <v>43590</v>
-      </c>
-      <c r="J23" s="46">
-        <v>43626</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="32">
-        <v>216</v>
-      </c>
-      <c r="N23" s="32">
-        <v>970</v>
-      </c>
-      <c r="O23" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="47">
-        <v>43556</v>
-      </c>
-      <c r="C24" s="47">
-        <v>43560</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="46">
-        <v>43556</v>
-      </c>
-      <c r="J24" s="46">
-        <v>43622</v>
-      </c>
-      <c r="K24" s="42">
-        <v>43662</v>
-      </c>
-      <c r="L24" s="43">
-        <v>43698</v>
-      </c>
-      <c r="M24" s="32">
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="33">
         <v>252</v>
       </c>
-      <c r="O24" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="46">
-        <v>43586</v>
-      </c>
-      <c r="J25" s="46">
-        <v>43662</v>
-      </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="32">
-        <v>252</v>
-      </c>
-      <c r="O25" s="44" t="s">
+      <c r="O25" s="46" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2246,225 +2225,225 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="49">
         <v>43556</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="49">
         <v>43560</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="H26" s="43"/>
+      <c r="I26" s="48">
         <v>43570</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="48">
         <v>43622</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="44">
         <v>43662</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="45">
         <v>43698</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="33">
         <v>252</v>
       </c>
-      <c r="O26" s="44" t="s">
+      <c r="O26" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="46">
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <v>43586</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="48">
         <v>43662</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="32">
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="33">
         <v>252</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="48">
+      <c r="H28" s="43"/>
+      <c r="I28" s="50">
         <v>43525</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="50">
         <v>43622</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="44">
         <v>43662</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="44">
         <v>43698</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="33">
         <v>257</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="O28" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="49">
         <v>43556</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="49">
         <v>43560</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="46">
+      <c r="H29" s="43"/>
+      <c r="I29" s="48">
         <v>43570</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="50">
         <v>43622</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="44">
         <v>43662</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="44">
         <v>43698</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="33">
         <v>257</v>
       </c>
-      <c r="O29" s="44" t="s">
+      <c r="O29" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="49">
         <v>43556</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="49">
         <v>43560</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="46">
+      <c r="H30" s="43"/>
+      <c r="I30" s="48">
         <v>43570</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="50">
         <v>43622</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="44">
         <v>43662</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="44">
         <v>43698</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="33">
         <v>256</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="48">
+      <c r="H31" s="43"/>
+      <c r="I31" s="50">
         <v>43525</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="50">
         <v>43622</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="44">
         <v>43662</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="44">
         <v>43698</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="33">
         <v>256</v>
       </c>
-      <c r="O31" s="44" t="s">
+      <c r="O31" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
+      <c r="A32" s="3"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2476,497 +2455,495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59">
         <v>11</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59">
         <v>10</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59">
         <v>14</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59">
         <v>22</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58">
         <v>2</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56">
+      <c r="C7" s="58"/>
+      <c r="D7" s="59">
         <v>1</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="59">
         <v>701</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="59">
         <v>963</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="59">
         <v>1</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="59">
         <v>970</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="59">
         <v>970</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="59">
         <v>1</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="59">
         <v>970</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="59">
         <v>2</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="59">
         <v>970</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="59">
         <v>10</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="59">
         <v>970</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56">
+      <c r="C14" s="58"/>
+      <c r="D14" s="59">
         <v>14</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="59">
         <v>970</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="59">
         <v>1</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="59">
         <v>101</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59">
         <v>101</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59">
         <v>151</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59">
         <v>216</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59">
         <v>160</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59">
         <v>30</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59">
         <v>261</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59">
         <v>260</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="59">
         <v>216</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="59">
         <v>970</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56">
+      <c r="C24" s="58"/>
+      <c r="D24" s="59">
         <v>252</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56">
+      <c r="C25" s="58"/>
+      <c r="D25" s="59">
         <v>252</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56">
+      <c r="C26" s="58"/>
+      <c r="D26" s="59">
         <v>252</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56">
+      <c r="C27" s="58"/>
+      <c r="D27" s="59">
         <v>252</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59">
         <v>257</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56">
+      <c r="C29" s="58"/>
+      <c r="D29" s="59">
         <v>257</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59">
         <v>256</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59">
         <v>256</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2978,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,34 +2965,34 @@
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:3" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,17 +3012,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
